--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -23,532 +23,532 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>selling military secrets</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
+    <t>Tony Montana</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>dreaming the day away</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>Inspector Gadget</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>Frank Sinatra</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Emma Bovary</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Nancy Drew</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>avoiding eye contact</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>cooking British food</t>
+  </si>
+  <si>
+    <t>Sir Hugo Drax</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>preventing terrorism</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>Rafael Nadal</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Tweety Pie</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>writing on wax tablets</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>Grigori Rasputin</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>puncturing artistic sensibilities</t>
+  </si>
+  <si>
+    <t>Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>running a propaganda machine</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>shocking radio listeners</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>selling tat</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>surviving a shipwreck</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
   </si>
   <si>
     <t>Tyler Durden</t>
   </si>
   <si>
-    <t>making soap</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Yogi Berra</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>bending the law</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
+    <t>stealing human fat</t>
+  </si>
+  <si>
+    <t>Groot</t>
   </si>
   <si>
     <t>guarding the galaxy</t>
   </si>
   <si>
-    <t>Saruman the White</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Mad Max Rockatansky</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>healing the sick</t>
-  </si>
-  <si>
-    <t>Ted Cruz</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>smoking during recess</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>eluding the FBI</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>running a fast-food business</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>William the Conqueror</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t>losing weight</t>
-  </si>
-  <si>
-    <t>Ellen Ripley</t>
-  </si>
-  <si>
-    <t>hunting aliens</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t>hosting educational films</t>
-  </si>
-  <si>
-    <t>Conan the Barbarian</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t>directing movies</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Arthur Dent</t>
-  </si>
-  <si>
-    <t>drinking tea</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>George W. Bush</t>
-  </si>
-  <si>
-    <t>launching foreign wars</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Savonarola</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>cooking a rabbit stew</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Chandler Bing</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>John F. Kennedy</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>selling out</t>
-  </si>
-  <si>
-    <t>Auric Goldfinger</t>
-  </si>
-  <si>
-    <t>cheating at golf</t>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Barney Stinson</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>directing weird movies</t>
   </si>
   <si>
     <t>Selma Bouvier</t>
   </si>
   <si>
     <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t>Sir Lancelot</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>making provocative documentaries</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>writing rap songs</t>
-  </si>
-  <si>
-    <t>Lois Lane</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Stormy Daniels</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>playing golf</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>playing intense characters</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.1875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -641,18 +641,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -663,18 +663,18 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -751,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -762,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -770,7 +770,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -778,65 +778,65 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -844,21 +844,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -866,79 +866,79 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -960,7 +960,7 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -971,7 +971,7 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -982,7 +982,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -990,29 +990,29 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1081,7 +1081,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1103,7 +1103,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1114,7 +1114,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1125,7 +1125,7 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1136,7 +1136,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1144,10 +1144,10 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -1158,7 +1158,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1169,7 +1169,7 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1180,7 +1180,7 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -1188,147 +1188,147 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
@@ -1342,21 +1342,21 @@
         <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1367,7 +1367,7 @@
         <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -1378,7 +1378,7 @@
         <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1397,7 +1397,7 @@
         <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1405,24 +1405,24 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -1433,7 +1433,7 @@
         <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1463,18 +1463,18 @@
         <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1482,21 +1482,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1504,32 +1504,32 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1537,35 +1537,35 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -1576,7 +1576,7 @@
         <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -1587,7 +1587,7 @@
         <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -1598,7 +1598,7 @@
         <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -1609,7 +1609,7 @@
         <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,241 +23,493 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>Tony Montana</t>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Sonny Crockett</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Edith Piaf</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Nelson Mandela</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>arguing against capitalism</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Ilya Kuryakin</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
   </si>
   <si>
     <t>running an empire</t>
   </si>
   <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>dreaming the day away</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Michelangelo</t>
-  </si>
-  <si>
-    <t>painting church ceilings</t>
-  </si>
-  <si>
-    <t>Inspector Gadget</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>betraying friends</t>
+  </si>
+  <si>
+    <t>Jean-Paul Sartre</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>exorcising demons</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Janis Joplin</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>fencing stolen goods</t>
+  </si>
+  <si>
+    <t>Mr. Miyagi</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Scipio Africanus</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
   </si>
   <si>
     <t>developing new technologies</t>
   </si>
   <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>cooking British food</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>fighting in gladiator arenas</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>painting abstract paintings</t>
   </si>
   <si>
     <t>Frank Sinatra</t>
   </si>
   <si>
-    <t>recording pop songs</t>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>Deadpool</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>deflating political egos</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>eluding authorities</t>
+  </si>
+  <si>
+    <t>Ayatollah Khomeini</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>making lewd remarks</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>Reince Priebus</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>Frasier Crane</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>producing Hollywood movies</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>decrying secrecy</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>Gianni Versace</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>trimming bushes</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>making Italian movies</t>
+  </si>
+  <si>
+    <t>Baldrick</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Carl Sagan</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>Marge Simpson</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>Adrian Monk</t>
+  </si>
+  <si>
+    <t>obsessively washing hands</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover</t>
+  </si>
+  <si>
+    <t>running the FBI</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
   </si>
   <si>
     <t>David Bowie</t>
   </si>
   <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Emma Bovary</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>Jor El</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Nancy Drew</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Larry David</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>avoiding eye contact</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
   </si>
   <si>
     <t>Bart Simpson</t>
@@ -266,289 +518,31 @@
     <t>playing pranks</t>
   </si>
   <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>Rafael Nadal</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Tweety Pie</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>jumping on couches</t>
-  </si>
-  <si>
-    <t>Grigori Rasputin</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>traveling in time</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>puncturing artistic sensibilities</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>Tina Fey</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>surviving a shipwreck</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>stealing human fat</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>Ellen DeGeneres</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>Sitting Bull</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
   </si>
 </sst>
 </file>
@@ -606,8 +600,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -641,18 +635,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +657,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -674,18 +668,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -718,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -751,7 +745,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -762,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -784,7 +778,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -795,7 +789,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +800,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -817,7 +811,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -825,18 +819,18 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -844,21 +838,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -866,87 +860,87 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -954,54 +948,54 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1009,10 +1003,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1020,21 +1014,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1042,13 +1036,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1059,7 +1053,7 @@
         <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1070,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -1081,7 +1075,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1086,7 @@
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1103,7 +1097,7 @@
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1114,7 +1108,7 @@
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1125,7 +1119,7 @@
         <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -1136,7 +1130,7 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1144,65 +1138,65 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1213,7 +1207,7 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -1224,7 +1218,7 @@
         <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1232,18 +1226,18 @@
         <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1251,87 +1245,87 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1339,24 +1333,24 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1367,7 +1361,7 @@
         <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1378,7 +1372,7 @@
         <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -1389,7 +1383,7 @@
         <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1411,26 +1405,26 @@
         <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1438,65 +1432,65 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1507,109 +1501,109 @@
         <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="B88" t="s">
-        <v>172</v>
-      </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,124 +23,493 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
+    <t>Donald Rumsfeld</t>
+  </si>
+  <si>
+    <t>writing hawkish memos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>promoting nerd culture</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Harvey Milk</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Piers Morgan</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Napoleon Bonaparte</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Lou Reed</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t>making lewd remarks</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Bernard Madoff</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Wilkins Micawber</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>bullying schoolkids</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>hosting anodyne game shows</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>investing money</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>hunting monsters</t>
+  </si>
+  <si>
+    <t>Ernst Stavro Blofeld</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>riding a bicycle</t>
+  </si>
+  <si>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>studying magic</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>having meltdowns in public</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>eluding hunters</t>
+  </si>
+  <si>
+    <t>nursing a messiah complex</t>
   </si>
   <si>
     <t>Serena Williams</t>
   </si>
   <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Ellen DeGeneres</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>Edith Piaf</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Nelson Mandela</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>Karl Marx</t>
-  </si>
-  <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Ilya Kuryakin</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth I</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>drawing political cartoons</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>Jean-Paul Sartre</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>Saint Peter</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Becky Sharp</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>singing country music</t>
   </si>
   <si>
     <t>E.T.</t>
@@ -149,400 +518,25 @@
     <t>phoning home</t>
   </si>
   <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>exorcising demons</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>Janis Joplin</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>Ebenezer Scrooge</t>
-  </si>
-  <si>
-    <t>saving money</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>fencing stolen goods</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>Scipio Africanus</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>fighting in gladiator arenas</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>painting abstract paintings</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>Deadpool</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>deflating political egos</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>Kylie Minogue</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>eluding authorities</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>reading the news</t>
-  </si>
-  <si>
-    <t>Reince Priebus</t>
-  </si>
-  <si>
-    <t>Al Capone</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>Frasier Crane</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>producing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>decrying secrecy</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism</t>
-  </si>
-  <si>
-    <t>Gianni Versace</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>Tom Ripley</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>making Italian movies</t>
-  </si>
-  <si>
-    <t>Baldrick</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Carl Sagan</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>bridging cultures</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>John Merrick</t>
-  </si>
-  <si>
-    <t>eluding the public gaze</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>obsessively washing hands</t>
-  </si>
-  <si>
-    <t>Dana Scully</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>J. Edgar Hoover</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Antonio Vivaldi</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>Dirty Harry Callahan</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>Sitting Bull</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
+    <t>Auric Goldfinger</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>designing computer systems</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>performing office chores</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
   </si>
 </sst>
 </file>
@@ -600,8 +594,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.5625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -668,18 +662,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -690,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -701,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -723,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -734,7 +728,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +739,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -756,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +761,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -778,7 +772,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -789,7 +783,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -800,7 +794,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -811,7 +805,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -819,7 +813,7 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -827,10 +821,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -838,21 +832,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -860,21 +854,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -882,43 +876,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -926,76 +920,76 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1003,10 +997,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1014,10 +1008,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1025,76 +1019,76 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -1102,21 +1096,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1124,13 +1118,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1141,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1152,7 +1146,7 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1171,29 +1165,29 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -1201,43 +1195,43 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1245,13 +1239,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1262,7 +1256,7 @@
         <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -1270,51 +1264,51 @@
         <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
       </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
       </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1322,32 +1316,32 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -1355,76 +1349,76 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
       </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1432,10 +1426,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -1443,32 +1437,32 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -1476,43 +1470,43 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -1520,10 +1514,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
@@ -1531,32 +1525,32 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -1564,46 +1558,46 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="173">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,469 +23,475 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Scipio Africanus</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>making money</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>John Keats</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Sam Spade</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>Jeff Bezos</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>Carrie Bradshaw</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>making condescending remarks</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Paris Hilton</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Giacomo Casanova</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>Serena Williams</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Jackie Chan</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>Sergey Brin</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>Grace Hopper</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>selling fast food</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>hiding from extremists</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Adrian Monk</t>
   </si>
   <si>
     <t>hosting a late night chat show</t>
   </si>
   <si>
-    <t>Justin Bieber</t>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>Vincent Van Gogh</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>writing pot-boilers</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>chasing electronic ghosts</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>fencing stolen goods</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>Gianni Versace</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Ed Wood</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>feeding the poor</t>
+  </si>
+  <si>
+    <t>Caitlyn Jenner</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
   </si>
   <si>
     <t>singing to teenagers</t>
   </si>
   <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>Baldrick</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>over-acting</t>
   </si>
   <si>
     <t>Becky Sharp</t>
@@ -494,49 +500,37 @@
     <t>climbing social ladders</t>
   </si>
   <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Auric Goldfinger</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>making propagandistic movies</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>brewing magican potions</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>Dr. Dre</t>
   </si>
 </sst>
 </file>
@@ -594,8 +588,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.97265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -662,18 +656,18 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -717,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +722,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -750,7 +744,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -761,7 +755,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +766,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -780,29 +774,29 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -810,21 +804,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -832,54 +826,54 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -887,145 +881,145 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1036,7 +1030,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1041,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1069,7 +1063,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1080,7 +1074,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1088,18 +1082,18 @@
         <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1107,21 +1101,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -1129,32 +1123,32 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -1162,13 +1156,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1176,10 +1170,10 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1190,7 +1184,7 @@
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1198,18 +1192,18 @@
         <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -1217,98 +1211,98 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="B61" t="s">
-        <v>33</v>
-      </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s">
-        <v>123</v>
-      </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
         <v>124</v>
       </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1316,43 +1310,43 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" t="s">
         <v>128</v>
       </c>
-      <c r="B66" t="s">
-        <v>129</v>
-      </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
       </c>
-      <c r="B67" t="s">
-        <v>131</v>
-      </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
       </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -1360,10 +1354,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -1371,10 +1365,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -1382,10 +1376,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
         <v>139</v>
-      </c>
-      <c r="B72" t="s">
-        <v>140</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -1393,10 +1387,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -1404,13 +1398,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
         <v>142</v>
       </c>
-      <c r="B74" t="s">
-        <v>37</v>
-      </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -1421,7 +1415,7 @@
         <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -1432,7 +1426,7 @@
         <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1443,7 +1437,7 @@
         <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1454,40 +1448,40 @@
         <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>155</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -1498,7 +1492,7 @@
         <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -1509,7 +1503,7 @@
         <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -1520,7 +1514,7 @@
         <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -1539,29 +1533,29 @@
         <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
-        <v>167</v>
-      </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" t="s">
-        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -1572,29 +1566,29 @@
         <v>169</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
         <v>171</v>
       </c>
-      <c r="B90" t="s">
-        <v>172</v>
-      </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="179">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,520 +23,532 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
+    <t>Richard B. Riddick</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>ranting about minorities</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>Scott Evil</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>Karen Carpenter</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Al Gore</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Monica Geller</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>escaping from reality</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Monica Lewinsky</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Sean Hannity</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>Steve Guttenberg</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>licking frogs</t>
+  </si>
+  <si>
+    <t>Baldrick</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
   </si>
   <si>
     <t>solving crimes</t>
   </si>
   <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>defending the Earth</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
   </si>
   <si>
     <t>starring in action movies</t>
   </si>
   <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
   </si>
   <si>
     <t>running an empire</t>
   </si>
   <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>retiring replicants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Parcell </t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Jane Eyre</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>manipulating ingenues</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>Alfred Hitchcock</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t>promoting diversity</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Loki Laufeyson</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>chasing jellyfish</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>Brian Wilson</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>causing political scandals</t>
+  </si>
+  <si>
+    <t>Dr. Dre</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>Samuel Pepys</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>Jerry Lewis</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
   </si>
   <si>
     <t>Harry Houdini</t>
   </si>
   <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>Barack Obama</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>Rico Tubbs</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
   </si>
   <si>
     <t>singing rock songs</t>
   </si>
   <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Becky Sharp</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Auric Goldfinger</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>promoting enlightenment</t>
+  </si>
+  <si>
+    <t>Benny Hill</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
   </si>
 </sst>
 </file>
@@ -594,9 +606,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -629,18 +641,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -651,18 +663,18 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -717,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +751,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -750,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -761,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -772,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -783,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -794,7 +806,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -816,7 +828,7 @@
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -827,7 +839,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -838,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -860,7 +872,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -871,7 +883,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +894,7 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +905,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -915,7 +927,7 @@
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -926,7 +938,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -937,7 +949,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +960,7 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +971,7 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -970,7 +982,7 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -981,7 +993,7 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -1003,7 +1015,7 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1014,7 +1026,7 @@
         <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1022,18 +1034,18 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1041,10 +1053,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1052,123 +1064,123 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1176,106 +1188,106 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1283,79 +1295,79 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1366,7 +1378,7 @@
         <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -1374,51 +1386,51 @@
         <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1426,54 +1438,54 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1481,123 +1493,123 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="176">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,49 +23,469 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>ranting about minorities</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
+    <t>Inspector Endeavour Morse</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>surviving fatwas</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>King Solomon</t>
+  </si>
+  <si>
+    <t>Tupac Shakur</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>giving self-help lectures</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>Bertie Wooster</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Archimedes</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>surviving large-scale floods</t>
+  </si>
+  <si>
+    <t>Charles Darwin</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Cher</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>Perry Mason</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>Roseanne Barr</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>tossing coins</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>letting one's hair down</t>
+  </si>
+  <si>
+    <t>Charles Lindbergh</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>Bernard Madoff</t>
+  </si>
+  <si>
+    <t>cheating clients</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>Ludwig Van Beethoven</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>Harvey Milk</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>Nurse Ratched</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>Lois Lane</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>Kylo Ren</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>Cameron Diaz</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
   </si>
   <si>
     <t>Garry Kasparov</t>
@@ -74,481 +494,52 @@
     <t>playing aggressive chess</t>
   </si>
   <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>Scott Evil</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Al Gore</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Luciano Pavarotti</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>escaping from reality</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Monica Lewinsky</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Sean Hannity</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
+    <t>Saruman the White</t>
+  </si>
+  <si>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
   </si>
   <si>
     <t>writing plays</t>
   </si>
   <si>
-    <t>Steve Guttenberg</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>licking frogs</t>
-  </si>
-  <si>
-    <t>Baldrick</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>defending the Earth</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Kenny G</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>retiring replicants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth Parcell </t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>Ray Charles</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>Saddam Hussein</t>
-  </si>
-  <si>
-    <t>suppressing minorities</t>
-  </si>
-  <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>Alfred Hitchcock</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>promoting new technologies</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>promoting diversity</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>watching TV</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Loki Laufeyson</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>chasing jellyfish</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>Brian Wilson</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>causing political scandals</t>
-  </si>
-  <si>
-    <t>Dr. Dre</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>Samuel Pepys</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Jerry Lewis</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Barack Obama</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>Thomas Jefferson</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>Hugh Jackman</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>drinking one's life away</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>Rico Tubbs</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>Usain Bolt</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Pablo Escobar</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>Dalton Trumbo</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>Benny Hill</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>Bob Belcher</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
   </si>
 </sst>
 </file>
@@ -606,8 +597,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.46875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -641,15 +632,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -657,35 +648,35 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -707,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -718,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -740,7 +731,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -762,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -770,29 +761,29 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -800,65 +791,65 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -866,54 +857,54 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -921,54 +912,54 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -976,76 +967,76 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1053,65 +1044,65 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1125,7 +1116,7 @@
         <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1136,7 +1127,7 @@
         <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1147,7 +1138,7 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1169,7 +1160,7 @@
         <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -1180,7 +1171,7 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1191,7 +1182,7 @@
         <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -1213,7 +1204,7 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -1224,7 +1215,7 @@
         <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -1246,7 +1237,7 @@
         <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1257,7 +1248,7 @@
         <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1265,18 +1256,18 @@
         <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
         <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>122</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1284,32 +1275,32 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="B62" t="s">
-        <v>124</v>
-      </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1323,7 +1314,7 @@
         <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -1334,18 +1325,18 @@
         <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -1356,7 +1347,7 @@
         <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1364,87 +1355,87 @@
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -1452,62 +1443,62 @@
         <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
-        <v>153</v>
-      </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1515,101 +1506,101 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="178">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,520 +23,529 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>writing hawkish memos</t>
+    <t>Pete Sampras</t>
+  </si>
+  <si>
+    <t>winning tennis grand slams</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t>running a smuggling business</t>
+  </si>
+  <si>
+    <t>Yogi Berra</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>Pac Man</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>Karl Marx</t>
+  </si>
+  <si>
+    <t>arguing against capitalism</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Joseph McCarthy</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>writing crime stories</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t>pushing shoddy merchandise</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>promoting world peace</t>
+  </si>
+  <si>
+    <t>Gordon Ramsay</t>
+  </si>
+  <si>
+    <t>cursing at kitchen staff</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>Phoebe Buffay</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>wooing potential brides</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>laughing maniacally</t>
+  </si>
+  <si>
+    <t>Sonny Crockett</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>performing physical therapy</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>arresting criminals</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>studying icons</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>Gloria Steinem</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>stealing lunch money</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>writing about history</t>
+  </si>
+  <si>
+    <t>Croesus</t>
+  </si>
+  <si>
+    <t>collecting treasures</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Uri Geller</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>Grigori Rasputin</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>Sean Hannity</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Aung San Suu Kyi</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>killing monsters</t>
+  </si>
+  <si>
+    <t>Edward Snowden</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>Rembrandt</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>David Mamet</t>
+  </si>
+  <si>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Johnny Carson</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>struggling with modern times</t>
+  </si>
+  <si>
+    <t>Greta Garbo</t>
+  </si>
+  <si>
+    <t>Conchita Wurst</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
     <t>Otto von Bismarck</t>
   </si>
   <si>
     <t>wielding political power</t>
   </si>
   <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>Piers Morgan</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Napoleon Bonaparte</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>Paris Hilton</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>investing money</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
+    <t>recording history</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>launching foreign wars</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>making strategic decisions</t>
   </si>
   <si>
     <t>fawning on the boss</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>Ernst Stavro Blofeld</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>carving magnificent statues</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Mr. Spock</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>nursing a messiah complex</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Becky Sharp</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>Auric Goldfinger</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>performing office chores</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>spying on girls</t>
   </si>
 </sst>
 </file>
@@ -594,8 +603,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.15234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -673,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -684,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -703,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -711,43 +720,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -755,32 +764,32 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -788,76 +797,76 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -865,21 +874,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -887,21 +896,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -909,32 +918,32 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -942,10 +951,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -953,21 +962,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -975,10 +984,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -986,65 +995,65 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1052,21 +1061,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1074,32 +1083,32 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -1107,10 +1116,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -1118,10 +1127,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -1129,10 +1138,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -1140,35 +1149,35 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -1176,62 +1185,62 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1239,76 +1248,76 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -1316,10 +1325,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -1327,10 +1336,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1338,10 +1347,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -1349,21 +1358,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -1371,21 +1380,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -1393,32 +1402,32 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -1426,21 +1435,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -1448,120 +1457,120 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -1569,21 +1578,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -1591,10 +1600,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>

--- a/StaffProject60.xlsx
+++ b/StaffProject60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,523 +23,526 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Selena Gomez</t>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Osama Bin Laden</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>inventing superheroes</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Anne Boleyn</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>Jean-Paul Sartre</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>Antonio Salieri</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Pontius Pilate</t>
+  </si>
+  <si>
+    <t>obsessively washing hands</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>investing money</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>attacking neighbors</t>
+  </si>
+  <si>
+    <t>Ashton Kutcher</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Jim Jones</t>
+  </si>
+  <si>
+    <t>organizing mass suicides</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>dreaming the day away</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>RuPaul</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>studying dinosaurs</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>talking up the economy</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>The Scarlet Pimpernel</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Jor El</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Ernst Stavro Blofeld</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>healing the sick</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>Roseanne Barr</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>Buddy Holly</t>
   </si>
   <si>
     <t>writing pop songs</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>giving investment advice</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>directing animated films</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>Saint Peter</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>fighting guerilla wars</t>
+  </si>
+  <si>
+    <t>Larry King</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
   </si>
   <si>
     <t>running a clandestine spy organization</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Harry S. Truman</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>running a communist country</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Stewie Griffin</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>surviving fatwas</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>King Solomon</t>
-  </si>
-  <si>
-    <t>Tupac Shakur</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>traveling in time</t>
+  </si>
+  <si>
+    <t>Tiny Tim Cratchit</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Miss Havisham</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>Sappho</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Colonel Kurtz</t>
+  </si>
+  <si>
+    <t>instilling fear in the enemy</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Gordon Gekko</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>managing hedge funds</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>Lisbeth Salander</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>chasing a great white whale</t>
+  </si>
+  <si>
+    <t>Jay Leno</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>Saruman the White</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
   </si>
   <si>
     <t>Tony Robbins</t>
   </si>
   <si>
-    <t>giving self-help lectures</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>Bertie Wooster</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>Archimedes</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>kicking ass</t>
-  </si>
-  <si>
-    <t>Tess Durbeyfield</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>Charles Darwin</t>
-  </si>
-  <si>
-    <t>promoting Darwinism</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Christopher Columbus</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>Perry Mason</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Roseanne Barr</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>Ted Cruz</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>tossing coins</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>amassing nuclear weapons</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>letting one's hair down</t>
-  </si>
-  <si>
-    <t>Charles Lindbergh</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>Ridley Scott</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>cheating clients</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>Ludwig Van Beethoven</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>Polonius</t>
-  </si>
-  <si>
-    <t>coining sententious maxims</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Patch Adams</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>Harvey Milk</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>Nurse Ratched</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>Lois Lane</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>Kylo Ren</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Saruman the White</t>
-  </si>
-  <si>
-    <t>plotting with the enemy</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>managing hedge funds</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>Bob Belcher</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.11328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -632,15 +635,15 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -648,35 +651,35 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -687,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -720,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -731,7 +734,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -742,7 +745,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -753,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -761,43 +764,43 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -808,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -819,7 +822,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -827,29 +830,29 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -857,54 +860,54 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -912,46 +915,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -973,7 +976,7 @@
         <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -984,7 +987,7 @@
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -995,7 +998,7 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1006,7 +1009,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1014,29 +1017,29 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1044,230 +1047,230 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1275,76 +1278,76 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
-        <v>123</v>
-      </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
-        <v>31</v>
-      </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1352,54 +1355,54 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
       </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
         <v>139</v>
       </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
       </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1407,46 +1410,46 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
       </c>
-      <c r="B74" t="s">
-        <v>146</v>
-      </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
       </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
       </c>
-      <c r="B77" t="s">
-        <v>75</v>
-      </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -1457,7 +1460,7 @@
         <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -1465,7 +1468,7 @@
         <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1473,21 +1476,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1495,32 +1498,32 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1528,10 +1531,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1539,35 +1542,35 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -1578,29 +1581,29 @@
         <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
